--- a/Team-Data/2007-08/2-10-2007-08.xlsx
+++ b/Team-Data/2007-08/2-10-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>18</v>
@@ -759,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J3" t="n">
         <v>75.3</v>
@@ -875,28 +942,28 @@
         <v>7.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N3" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O3" t="n">
         <v>20.9</v>
       </c>
       <c r="P3" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T3" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U3" t="n">
         <v>21.7</v>
@@ -908,25 +975,25 @@
         <v>8.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
         <v>21.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -965,19 +1032,19 @@
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
         <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>20</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>21</v>
@@ -986,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA3" t="n">
         <v>5</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -1030,61 +1097,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>0.353</v>
+        <v>0.36</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>79.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="P4" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.701</v>
+        <v>0.699</v>
       </c>
       <c r="R4" t="n">
         <v>11.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V4" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W4" t="n">
         <v>7.4</v>
@@ -1093,28 +1160,28 @@
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.3</v>
+        <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
@@ -1126,13 +1193,13 @@
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1141,10 +1208,10 @@
         <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
@@ -1153,37 +1220,37 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX4" t="n">
         <v>13</v>
       </c>
-      <c r="AV4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>12</v>
-      </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>19</v>
@@ -1347,10 +1414,10 @@
         <v>12</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -1394,37 +1461,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
         <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J6" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.352</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
         <v>18.1</v>
@@ -1436,25 +1503,25 @@
         <v>0.721</v>
       </c>
       <c r="R6" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V6" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W6" t="n">
         <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y6" t="n">
         <v>4.8</v>
@@ -1466,13 +1533,13 @@
         <v>20</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1496,7 +1563,7 @@
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
         <v>12</v>
@@ -1517,10 +1584,10 @@
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
@@ -1535,19 +1602,19 @@
         <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
         <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.68</v>
+        <v>0.694</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="L7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M7" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.341</v>
+        <v>0.346</v>
       </c>
       <c r="O7" t="n">
         <v>21.2</v>
       </c>
       <c r="P7" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.82</v>
+        <v>0.821</v>
       </c>
       <c r="R7" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U7" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V7" t="n">
         <v>12.6</v>
@@ -1636,40 +1703,40 @@
         <v>5.9</v>
       </c>
       <c r="X7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y7" t="n">
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
@@ -1684,13 +1751,13 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1702,10 +1769,10 @@
         <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
@@ -1714,19 +1781,19 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -1758,46 +1825,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
         <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.62</v>
+        <v>0.612</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J8" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.453</v>
       </c>
       <c r="L8" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M8" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O8" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
         <v>12.1</v>
@@ -1806,13 +1873,13 @@
         <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W8" t="n">
         <v>9.300000000000001</v>
@@ -1824,19 +1891,19 @@
         <v>5.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1845,7 +1912,7 @@
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>8</v>
@@ -1860,13 +1927,13 @@
         <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1887,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>25</v>
@@ -1902,7 +1969,7 @@
         <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.74</v>
+        <v>0.735</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K9" t="n">
         <v>0.46</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.377</v>
+        <v>0.373</v>
       </c>
       <c r="O9" t="n">
         <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R9" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T9" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U9" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
@@ -2000,25 +2067,25 @@
         <v>7.4</v>
       </c>
       <c r="X9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y9" t="n">
         <v>3.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,13 +2100,13 @@
         <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
         <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2048,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2063,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT9" t="n">
         <v>21</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>8</v>
@@ -2087,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>2.4</v>
       </c>
       <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
         <v>10</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2236,7 +2303,7 @@
         <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>2.9</v>
       </c>
       <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
         <v>10</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
@@ -2406,13 +2473,13 @@
         <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2424,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
@@ -2433,19 +2500,19 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
@@ -2457,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2634,7 @@
         <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>20</v>
@@ -2576,7 +2643,7 @@
         <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2624,7 +2691,7 @@
         <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2776,7 +2843,7 @@
         <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
@@ -2791,10 +2858,10 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU13" t="n">
         <v>18</v>
@@ -2821,7 +2888,7 @@
         <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.66</v>
+        <v>0.653</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2877,10 +2944,10 @@
         <v>7.4</v>
       </c>
       <c r="M14" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
         <v>21.5</v>
@@ -2889,7 +2956,7 @@
         <v>28.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R14" t="n">
         <v>10.8</v>
@@ -2901,7 +2968,7 @@
         <v>44.3</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
         <v>15.1</v>
@@ -2916,28 +2983,28 @@
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
         <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2955,10 +3022,10 @@
         <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2967,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -2976,10 +3043,10 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>18</v>
@@ -2988,13 +3055,13 @@
         <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3131,7 +3198,7 @@
         <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3152,7 +3219,7 @@
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS15" t="n">
         <v>9</v>
@@ -3185,7 +3252,7 @@
         <v>9</v>
       </c>
       <c r="BC15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>0.18</v>
+        <v>0.184</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J16" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.453</v>
@@ -3241,37 +3308,37 @@
         <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N16" t="n">
         <v>0.328</v>
       </c>
       <c r="O16" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P16" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.719</v>
+        <v>0.717</v>
       </c>
       <c r="R16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="U16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
@@ -3283,16 +3350,16 @@
         <v>20.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.8</v>
+        <v>-7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3307,7 +3374,7 @@
         <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3325,19 +3392,19 @@
         <v>28</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3349,10 +3416,10 @@
         <v>16</v>
       </c>
       <c r="AW16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3361,7 +3428,7 @@
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3553,7 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
         <v>19</v>
@@ -3495,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -3578,67 +3645,67 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.204</v>
+        <v>0.208</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K18" t="n">
         <v>0.44</v>
       </c>
       <c r="L18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="O18" t="n">
         <v>15</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.724</v>
       </c>
       <c r="R18" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
         <v>42.2</v>
       </c>
       <c r="U18" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V18" t="n">
         <v>15.4</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y18" t="n">
         <v>5.9</v>
@@ -3650,13 +3717,13 @@
         <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.5</v>
+        <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3698,13 +3765,13 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>21</v>
       </c>
       <c r="AT18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
@@ -3713,22 +3780,22 @@
         <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
         <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.431</v>
+        <v>0.42</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3778,43 +3845,43 @@
         <v>33.9</v>
       </c>
       <c r="J19" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M19" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O19" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P19" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="R19" t="n">
         <v>11.7</v>
       </c>
       <c r="S19" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T19" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U19" t="n">
         <v>23.7</v>
       </c>
       <c r="V19" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W19" t="n">
         <v>6.3</v>
@@ -3823,25 +3890,25 @@
         <v>4.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="AA19" t="n">
         <v>22.7</v>
       </c>
-      <c r="AA19" t="n">
-        <v>22.8</v>
-      </c>
       <c r="AB19" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.2</v>
+        <v>-5.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,7 +3935,7 @@
         <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3886,7 +3953,7 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU19" t="n">
         <v>4</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3910,10 +3977,10 @@
         <v>7</v>
       </c>
       <c r="BB19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4044,7 +4111,7 @@
         <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM20" t="n">
         <v>7</v>
@@ -4071,7 +4138,7 @@
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4083,7 +4150,7 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -4214,13 +4281,13 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>26</v>
@@ -4232,7 +4299,7 @@
         <v>18</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
@@ -4241,7 +4308,7 @@
         <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR21" t="n">
         <v>5</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -4387,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
         <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>14</v>
@@ -4435,7 +4502,7 @@
         <v>12</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>13</v>
@@ -4450,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
@@ -4599,10 +4666,10 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4611,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT23" t="n">
         <v>16</v>
@@ -4635,13 +4702,13 @@
         <v>9</v>
       </c>
       <c r="BA23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB23" t="n">
         <v>25</v>
       </c>
       <c r="BC23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" t="n">
         <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>0.706</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4709,7 +4776,7 @@
         <v>22.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
       <c r="R24" t="n">
         <v>8.4</v>
@@ -4718,13 +4785,13 @@
         <v>32.3</v>
       </c>
       <c r="T24" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U24" t="n">
         <v>27.3</v>
       </c>
       <c r="V24" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W24" t="n">
         <v>7.4</v>
@@ -4742,13 +4809,13 @@
         <v>20</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
@@ -4817,13 +4884,13 @@
         <v>5</v>
       </c>
       <c r="BA24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -4963,13 +5030,13 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -4978,10 +5045,10 @@
         <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -5112,22 +5179,22 @@
         <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="n">
         <v>32</v>
       </c>
       <c r="F27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>0.653</v>
+        <v>0.667</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
@@ -5243,70 +5310,70 @@
         <v>7.8</v>
       </c>
       <c r="M27" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="N27" t="n">
         <v>0.377</v>
       </c>
       <c r="O27" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="P27" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R27" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S27" t="n">
         <v>31.3</v>
       </c>
       <c r="T27" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U27" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V27" t="n">
         <v>12.9</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AA27" t="n">
         <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
         <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5318,13 +5385,13 @@
         <v>11</v>
       </c>
       <c r="AL27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO27" t="n">
         <v>25</v>
@@ -5333,31 +5400,31 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT27" t="n">
         <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV27" t="n">
         <v>5</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,7 +5555,7 @@
         <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5506,7 +5573,7 @@
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5545,10 +5612,10 @@
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
         <v>28</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -5580,37 +5647,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="n">
         <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>0.551</v>
+        <v>0.542</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J29" t="n">
         <v>81.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L29" t="n">
         <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="O29" t="n">
         <v>16.4</v>
@@ -5622,25 +5689,25 @@
         <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
         <v>40.3</v>
       </c>
       <c r="U29" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V29" t="n">
         <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y29" t="n">
         <v>4.3</v>
@@ -5649,22 +5716,22 @@
         <v>20</v>
       </c>
       <c r="AA29" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
@@ -5706,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
@@ -5727,7 +5794,7 @@
         <v>8</v>
       </c>
       <c r="BA29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -5894,13 +5961,13 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
@@ -5944,46 +6011,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="n">
         <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
         <v>0.443</v>
       </c>
       <c r="L31" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
         <v>19.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O31" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P31" t="n">
         <v>24.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.798</v>
+        <v>0.796</v>
       </c>
       <c r="R31" t="n">
         <v>12.3</v>
@@ -5992,10 +6059,10 @@
         <v>29.9</v>
       </c>
       <c r="T31" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U31" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
@@ -6004,10 +6071,10 @@
         <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
         <v>19.5</v>
@@ -6016,13 +6083,13 @@
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6034,10 +6101,10 @@
         <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6046,7 +6113,7 @@
         <v>21</v>
       </c>
       <c r="AL31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>10</v>
@@ -6064,13 +6131,13 @@
         <v>3</v>
       </c>
       <c r="AR31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
         <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6079,13 +6146,13 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
         <v>4</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-10-2007-08</t>
+          <t>2008-02-10</t>
         </is>
       </c>
     </row>
